--- a/data/trans_dic/P20-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05338528785715491</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06937930628874192</v>
+        <v>0.06937930628874191</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06848481995849155</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01494571356443323</v>
+        <v>0.01529031280523374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04888210780180634</v>
+        <v>0.048570479934416</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03752965537695292</v>
+        <v>0.03642225752874531</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05253000591159036</v>
+        <v>0.05139107955822446</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05124380158681071</v>
+        <v>0.0503417775846398</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08608459537422829</v>
+        <v>0.08691019072501327</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05048045437056865</v>
+        <v>0.05085239071448531</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04965309860250578</v>
+        <v>0.05013598797809622</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03610014723074253</v>
+        <v>0.03585915949022947</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07220248548461582</v>
+        <v>0.07305402393841946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04961272702926043</v>
+        <v>0.0475270188421756</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05459547146862191</v>
+        <v>0.05471399774801659</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03759007386813708</v>
+        <v>0.04035190514585257</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08704888029866677</v>
+        <v>0.08866442880770511</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07390304297671448</v>
+        <v>0.07159071448703307</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09048683032602121</v>
+        <v>0.09072885560076664</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09080672826210186</v>
+        <v>0.08861278286038458</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1325709878522519</v>
+        <v>0.1354235952152995</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09197430613494686</v>
+        <v>0.09059977954073956</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08396713956422378</v>
+        <v>0.08256658695197772</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05833699318582142</v>
+        <v>0.05873648511218872</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1037135340067522</v>
+        <v>0.1057312214865603</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07516989227573716</v>
+        <v>0.07569225789906495</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07902076276090451</v>
+        <v>0.07922834933656109</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.04467636513819801</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05207091834735778</v>
+        <v>0.05207091834735777</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07776918067325625</v>
@@ -821,7 +821,7 @@
         <v>0.07383898361597638</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06509914334482245</v>
+        <v>0.06509914334482246</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05833294727619651</v>
@@ -833,7 +833,7 @@
         <v>0.05940227717697646</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05865239481922678</v>
+        <v>0.05865239481922679</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02813953257363781</v>
+        <v>0.02785455326588893</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04704586308839329</v>
+        <v>0.04687103593798671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03302720724337221</v>
+        <v>0.03234198240613162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03876318072748486</v>
+        <v>0.03845991788462474</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06160623113229403</v>
+        <v>0.06185620624860701</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07676701612746588</v>
+        <v>0.07597522492084191</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05748133586165087</v>
+        <v>0.05786370898054009</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05227396193723326</v>
+        <v>0.05124890749031558</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04822076615994587</v>
+        <v>0.04780145375832294</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06484254446967395</v>
+        <v>0.06519400976055208</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04987938691363655</v>
+        <v>0.04921176603298916</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04876083569613675</v>
+        <v>0.04926824723622285</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05346591155099802</v>
+        <v>0.05207586882441195</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07792347810210151</v>
+        <v>0.07623010478249076</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05943012558746838</v>
+        <v>0.06084076938265921</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07107407859652172</v>
+        <v>0.06952493993649274</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09778514649451465</v>
+        <v>0.09813027169586594</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.112533502326774</v>
+        <v>0.1156406182657985</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0916455621351734</v>
+        <v>0.09164113340994297</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08451855309077327</v>
+        <v>0.08301242638222268</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07049285722364337</v>
+        <v>0.07012567846623355</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08994855291830249</v>
+        <v>0.09007586007694211</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07132972817142955</v>
+        <v>0.07062187269792239</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0724053617509855</v>
+        <v>0.07103679398355436</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05764615441522288</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0543476833218972</v>
+        <v>0.05434768332189721</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03937454264858926</v>
+        <v>0.03793895882366882</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04532977357432736</v>
+        <v>0.04672107507603249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02902483592682362</v>
+        <v>0.03025869599083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03414063289453778</v>
+        <v>0.03331901007765244</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0643652063741721</v>
+        <v>0.06599561997209498</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07579188815822062</v>
+        <v>0.07494025535212888</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05379807944934818</v>
+        <v>0.05334041843824566</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04595165702677019</v>
+        <v>0.04688485908342834</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05643449469126343</v>
+        <v>0.05653245015266318</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06661263927519463</v>
+        <v>0.064633918407529</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04710363000219096</v>
+        <v>0.04581919335236894</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04487791838719931</v>
+        <v>0.04467835418246213</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07635434268198045</v>
+        <v>0.07600650560616491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08607371907555654</v>
+        <v>0.08555403354633671</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06416161061206369</v>
+        <v>0.06066441222203689</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06349942094806718</v>
+        <v>0.06510111269268855</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1068652675850565</v>
+        <v>0.1075124082394124</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1206038802007227</v>
+        <v>0.1204484756048808</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09205843243200559</v>
+        <v>0.09056828354086223</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07867692281348904</v>
+        <v>0.07831649004692839</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08613895467505202</v>
+        <v>0.08526742775522868</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09606828999545967</v>
+        <v>0.09532674417887797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07148576623511596</v>
+        <v>0.07044491165552162</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06724334707131503</v>
+        <v>0.06643904090214862</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03516075325016713</v>
+        <v>0.03398492982096175</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04242005745964403</v>
+        <v>0.04170850744228412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0385679442529274</v>
+        <v>0.03928216600208891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05188182020072617</v>
+        <v>0.05109537856848749</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05281831136866972</v>
+        <v>0.05328110865490424</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07027476084264812</v>
+        <v>0.07057043621735243</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07320178145524558</v>
+        <v>0.07290293418931437</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05856349484199282</v>
+        <v>0.05943163854970488</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04564239102281899</v>
+        <v>0.0468232128662869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06094488166007398</v>
+        <v>0.06112789986993061</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06040071794174331</v>
+        <v>0.06081199738600878</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05900350543100688</v>
+        <v>0.05901996174682472</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06188419706562631</v>
+        <v>0.05889995733777575</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07155294121033766</v>
+        <v>0.07234640474344013</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06856415246632232</v>
+        <v>0.06757390726553952</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0808051279112304</v>
+        <v>0.08068534688284244</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08410582931313616</v>
+        <v>0.08470147129946239</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.105422241146839</v>
+        <v>0.1053926987017333</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1114426328010205</v>
+        <v>0.1106581665323929</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08517916145138235</v>
+        <v>0.08542557601665564</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06649788121766959</v>
+        <v>0.06779418879249666</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08361362064816165</v>
+        <v>0.08477135552282979</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08418599438117177</v>
+        <v>0.08503069640350923</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07834753591731149</v>
+        <v>0.07870014746773099</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03481822323734288</v>
+        <v>0.03517505133738276</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05357530969927975</v>
+        <v>0.0529560943412473</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04057136070786677</v>
+        <v>0.0413306795886315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05007353394387337</v>
+        <v>0.05022066642849589</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06540273755975194</v>
+        <v>0.06534352694564585</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08632097760346072</v>
+        <v>0.08482629104669537</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06813196674766327</v>
+        <v>0.0683766491139508</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05878792459887847</v>
+        <v>0.05847830381162596</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05263701843802458</v>
+        <v>0.05262628201072669</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0723242506507467</v>
+        <v>0.07207535037721033</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05700147599301867</v>
+        <v>0.0569885590382995</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05634193505176748</v>
+        <v>0.05696182072329446</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04899940523340228</v>
+        <v>0.0488679303111352</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0701497590130598</v>
+        <v>0.069713731599287</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0555857968233314</v>
+        <v>0.05638573633172054</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06575732561375243</v>
+        <v>0.06687726761559298</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08350308527758768</v>
+        <v>0.08315847145516574</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1067100339602286</v>
+        <v>0.1046664699082766</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08681047390311687</v>
+        <v>0.08702733628467199</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07427086192791184</v>
+        <v>0.07356900661473674</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06408227228174285</v>
+        <v>0.06450618366786663</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08504521843741056</v>
+        <v>0.08514976010835695</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06905282531260525</v>
+        <v>0.0694520166173045</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06753522921335316</v>
+        <v>0.06789716671545261</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10358</v>
+        <v>10597</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34387</v>
+        <v>34168</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25325</v>
+        <v>24578</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36283</v>
+        <v>35496</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>35274</v>
+        <v>34653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>60005</v>
+        <v>60581</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>33965</v>
+        <v>34215</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>36401</v>
+        <v>36755</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>49869</v>
+        <v>49537</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>101121</v>
+        <v>102314</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>66860</v>
+        <v>64049</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>77734</v>
+        <v>77903</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26052</v>
+        <v>27967</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61236</v>
+        <v>62373</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49870</v>
+        <v>48309</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>62500</v>
+        <v>62667</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>62507</v>
+        <v>60997</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>92409</v>
+        <v>94397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>61884</v>
+        <v>60959</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>61557</v>
+        <v>60531</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>80588</v>
+        <v>81140</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>145253</v>
+        <v>148079</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>101302</v>
+        <v>102006</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>112512</v>
+        <v>112807</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27065</v>
+        <v>26791</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>47890</v>
+        <v>47712</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>33768</v>
+        <v>33067</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40659</v>
+        <v>40341</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>59659</v>
+        <v>59901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>79238</v>
+        <v>78420</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>59948</v>
+        <v>60347</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>55977</v>
+        <v>54879</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>93075</v>
+        <v>92266</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>132936</v>
+        <v>133656</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>103018</v>
+        <v>101639</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>103361</v>
+        <v>104437</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>51424</v>
+        <v>50087</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>79322</v>
+        <v>77598</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>60763</v>
+        <v>62205</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>74551</v>
+        <v>72926</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>94694</v>
+        <v>95029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>116155</v>
+        <v>119362</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>95578</v>
+        <v>95574</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>90506</v>
+        <v>88893</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>136065</v>
+        <v>135356</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>184406</v>
+        <v>184667</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>147320</v>
+        <v>145858</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>153482</v>
+        <v>150581</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26716</v>
+        <v>25742</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34250</v>
+        <v>35301</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22046</v>
+        <v>22983</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>27417</v>
+        <v>26758</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>44016</v>
+        <v>45131</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>58903</v>
+        <v>58242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>42232</v>
+        <v>41873</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>37325</v>
+        <v>38083</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>76884</v>
+        <v>77017</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>102101</v>
+        <v>99068</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>72755</v>
+        <v>70771</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>72493</v>
+        <v>72170</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>51807</v>
+        <v>51571</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65035</v>
+        <v>64643</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48734</v>
+        <v>46078</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50995</v>
+        <v>52281</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>73079</v>
+        <v>73521</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>93730</v>
+        <v>93609</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>72267</v>
+        <v>71097</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>63906</v>
+        <v>63613</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>117351</v>
+        <v>116164</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>147249</v>
+        <v>146112</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>110414</v>
+        <v>108807</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>108620</v>
+        <v>107321</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>33129</v>
+        <v>32021</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>40203</v>
+        <v>39529</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36160</v>
+        <v>36830</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>51366</v>
+        <v>50588</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>54858</v>
+        <v>55338</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>73922</v>
+        <v>74233</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>76406</v>
+        <v>76095</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>65493</v>
+        <v>66464</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>90410</v>
+        <v>92749</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>121868</v>
+        <v>122234</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>119675</v>
+        <v>120490</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>124402</v>
+        <v>124437</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>58309</v>
+        <v>55497</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67814</v>
+        <v>68566</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64283</v>
+        <v>63355</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>80002</v>
+        <v>79883</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>87353</v>
+        <v>87972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>110894</v>
+        <v>110863</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>116321</v>
+        <v>115503</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>95257</v>
+        <v>95533</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>131721</v>
+        <v>134289</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>167197</v>
+        <v>169512</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>166802</v>
+        <v>168475</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>165186</v>
+        <v>165930</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>114051</v>
+        <v>115219</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>183481</v>
+        <v>181360</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>137713</v>
+        <v>140291</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>176898</v>
+        <v>177418</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>221009</v>
+        <v>220809</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>307157</v>
+        <v>301838</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>241497</v>
+        <v>242364</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>219545</v>
+        <v>218389</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>350289</v>
+        <v>350217</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>505043</v>
+        <v>503305</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>395527</v>
+        <v>395437</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>409453</v>
+        <v>413958</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>160502</v>
+        <v>160072</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>240244</v>
+        <v>238751</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>188678</v>
+        <v>191393</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>232305</v>
+        <v>236261</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>282173</v>
+        <v>281009</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>379707</v>
+        <v>372436</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>307703</v>
+        <v>308472</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>277367</v>
+        <v>274746</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>426454</v>
+        <v>429275</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>593874</v>
+        <v>594604</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>479150</v>
+        <v>481920</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>490798</v>
+        <v>493428</v>
       </c>
     </row>
     <row r="24">
